--- a/Uedaが如く/仕様/上田蓮果.xlsx
+++ b/Uedaが如く/仕様/上田蓮果.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\MyGame\Uedaが如く\仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955F7275-5419-46F7-914D-89368FB2B92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EEC21E-F5FA-40AF-B802-F64699CAA553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="90">
   <si>
     <r>
       <t xml:space="preserve">製作期間：○/○～○/○
@@ -466,6 +466,10 @@
   </si>
   <si>
     <t>シェーダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7/14～7/18</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1633,8 +1637,8 @@
       <c r="A9" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="16">
-        <v>45484</v>
+      <c r="B9" s="16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.4">
@@ -1673,16 +1677,16 @@
       <c r="A14" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="16">
-        <v>45483</v>
+      <c r="B14" s="16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="16">
-        <v>45483</v>
+      <c r="B15" s="16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.4">
@@ -1833,8 +1837,8 @@
       <c r="A36" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F36" s="28">
-        <v>45482</v>
+      <c r="F36" s="28" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
@@ -1980,11 +1984,20 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
@@ -1995,7 +2008,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2230,16 +2243,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2250,7 +2262,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2267,12 +2279,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Uedaが如く/仕様/上田蓮果.xlsx
+++ b/Uedaが如く/仕様/上田蓮果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\MyGame\Uedaが如く\仕様\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EEC21E-F5FA-40AF-B802-F64699CAA553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B49DB94-F521-41C0-ABBE-154672C216CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{F7EF4541-C041-4B11-B2A5-B7B18C03C7F4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="88">
   <si>
     <r>
       <t xml:space="preserve">製作期間：○/○～○/○
@@ -440,23 +440,6 @@
     <t>回復アイテム</t>
     <rPh sb="0" eb="2">
       <t>カイフク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>外部ファイル</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ読み込み</t>
-    <rPh sb="3" eb="4">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1519,19 +1502,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB4241A-66ED-4D56-8CA5-5637D565307D}">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="45.75" customWidth="1"/>
+    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="39.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="39.75" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
         <v>46</v>
       </c>
@@ -1542,20 +1526,21 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
       <c r="B2" s="8" t="s">
         <v>71</v>
@@ -1564,20 +1549,21 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1592,8 +1578,9 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="23" t="s">
         <v>49</v>
       </c>
@@ -1602,14 +1589,15 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="12"/>
     </row>
-    <row r="6" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1617,7 +1605,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1625,7 +1613,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -1633,15 +1621,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -1649,7 +1637,7 @@
         <v>45486</v>
       </c>
     </row>
-    <row r="11" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1657,7 +1645,7 @@
         <v>45485</v>
       </c>
     </row>
-    <row r="12" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -1665,15 +1653,15 @@
         <v>45485</v>
       </c>
     </row>
-    <row r="13" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>82</v>
       </c>
       <c r="B13" s="16">
-        <v>45485</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.4">
+        <v>45486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -1681,7 +1669,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:12" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -1689,13 +1677,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C16" s="12"/>
     </row>
-    <row r="17" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1703,7 +1691,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -1711,18 +1699,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A21" s="24" t="s">
         <v>57</v>
       </c>
@@ -1730,7 +1718,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A22" s="24" t="s">
         <v>58</v>
       </c>
@@ -1738,7 +1726,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
         <v>59</v>
       </c>
@@ -1746,7 +1734,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A24" s="24" t="s">
         <v>60</v>
       </c>
@@ -1754,13 +1742,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="1:6" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A26" s="24" t="s">
         <v>52</v>
       </c>
@@ -1768,7 +1756,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A27" s="24" t="s">
         <v>53</v>
       </c>
@@ -1776,211 +1764,203 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A28" s="12" t="s">
         <v>70</v>
       </c>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A29" s="24" t="s">
         <v>52</v>
       </c>
       <c r="F29" s="28">
         <v>45487</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="G29" s="28"/>
+    </row>
+    <row r="30" spans="1:7" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A30" s="24" t="s">
         <v>67</v>
       </c>
       <c r="F30" s="28">
         <v>45487</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="G30" s="28"/>
+    </row>
+    <row r="31" spans="1:7" s="24" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A31" s="24" t="s">
         <v>53</v>
       </c>
       <c r="F31" s="28">
         <v>45488</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="G31" s="28"/>
+    </row>
+    <row r="32" spans="1:7" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A32" s="24" t="s">
         <v>55</v>
       </c>
       <c r="F32" s="28">
         <v>45488</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="G32" s="28"/>
+    </row>
+    <row r="33" spans="1:9" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A33" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:9" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A34" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="28">
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" s="28"/>
-    </row>
-    <row r="36" spans="1:8" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F36" s="28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
+      <c r="G34" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="13" t="s">
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G38" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+    </row>
+    <row r="37" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A37" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+    </row>
+    <row r="38" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A38" s="24" t="s">
+        <v>80</v>
+      </c>
       <c r="H38" s="24"/>
-    </row>
-    <row r="39" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="I38" s="24"/>
+    </row>
+    <row r="39" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
       <c r="A39" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="G39" s="24"/>
+        <v>81</v>
+      </c>
       <c r="H39" s="24"/>
-    </row>
-    <row r="40" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
-      <c r="A40" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-    </row>
-    <row r="41" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
-      <c r="A41" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="G41" s="24"/>
+      <c r="I39" s="24"/>
+    </row>
+    <row r="40" spans="1:9" s="24" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A41" s="24"/>
       <c r="H41" s="24"/>
-    </row>
-    <row r="42" spans="1:8" s="24" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="I41" s="24"/>
+    </row>
+    <row r="42" spans="1:9" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A42" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
-      <c r="A43" s="24"/>
-      <c r="G43" s="24"/>
+        <v>77</v>
+      </c>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+    </row>
+    <row r="43" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A43" s="24" t="s">
+        <v>78</v>
+      </c>
       <c r="H43" s="24"/>
-    </row>
-    <row r="44" spans="1:8" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G44" s="24"/>
+      <c r="I43" s="24"/>
+    </row>
+    <row r="44" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A44" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="H44" s="24"/>
-    </row>
-    <row r="45" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
-      <c r="A45" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G45" s="24"/>
+      <c r="I44" s="24"/>
+    </row>
+    <row r="45" spans="1:9" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
+      <c r="A45" s="24"/>
       <c r="H45" s="24"/>
-    </row>
-    <row r="46" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
-      <c r="A46" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-    </row>
-    <row r="47" spans="1:8" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4">
-      <c r="A47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-    </row>
-    <row r="48" spans="1:8" s="24" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="I45" s="24"/>
+    </row>
+    <row r="46" spans="1:9" s="24" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:9" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A48" s="26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" s="24" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.4"/>
-    <row r="50" spans="1:13" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-    </row>
-    <row r="51" spans="1:13" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="27"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A52" s="3" t="s">
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+    </row>
+    <row r="49" spans="1:14" s="24" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="27"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A50" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-    </row>
-    <row r="53" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-    </row>
-    <row r="54" spans="1:13" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4"/>
-    <row r="55" spans="1:13" collapsed="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="4" t="s">
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+    </row>
+    <row r="52" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4"/>
+    <row r="53" spans="1:14" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-    </row>
-    <row r="56" spans="1:13" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+    </row>
+    <row r="54" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="L54" s="25"/>
+    </row>
+    <row r="55" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="L55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A56" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="K56" s="25"/>
-    </row>
-    <row r="57" spans="1:13" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="K57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+      <c r="M56" s="25"/>
+    </row>
+    <row r="57" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="M57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A58" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="L58" s="25"/>
-    </row>
-    <row r="59" spans="1:13" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="L59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="M60" s="25"/>
-    </row>
-    <row r="61" spans="1:13" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="M61" t="s">
+      <c r="N58" s="25"/>
+    </row>
+    <row r="59" spans="1:14" ht="14.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="N59" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:13" collapsed="1" x14ac:dyDescent="0.4"/>
+    <row r="60" spans="1:14" collapsed="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1998,17 +1978,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -2243,6 +2212,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="c2562f78-638f-4b8f-b708-acdd87129c74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56f67181-167d-4f85-a438-a55f61d398e9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D555BA-6FED-4569-937D-48F747855FDE}">
   <ds:schemaRefs>
@@ -2252,17 +2232,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
-    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8CB9BEF-1046-4375-AE4F-C501780FD76E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2279,4 +2248,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43589059-C76E-4531-8388-95E41EFF1BD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c2562f78-638f-4b8f-b708-acdd87129c74"/>
+    <ds:schemaRef ds:uri="56f67181-167d-4f85-a438-a55f61d398e9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>